--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.87769999999998</v>
+        <v>-20.62799999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.47799999999999</v>
+        <v>-19.33589999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.7922</v>
+        <v>-12.5133</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.2772</v>
+        <v>-14.26</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.57949999999999</v>
+        <v>-21.53169999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.078800000000005</v>
+        <v>-9.160700000000009</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.786799999999994</v>
+        <v>-8.827899999999996</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.9538</v>
+        <v>-11.96890000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.5183</v>
+        <v>-12.33240000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.55130000000001</v>
+        <v>-12.64890000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.2048</v>
+        <v>-21.97199999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.27959999999997</v>
+        <v>-21.11149999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2203</v>
+        <v>-21.26679999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.68150000000001</v>
+        <v>-11.74620000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.5073</v>
+        <v>17.5533</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.742299999999995</v>
+        <v>-8.720399999999994</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.02249999999999</v>
+        <v>-20.4202</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.81019999999999</v>
+        <v>-12.31199999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.13720000000002</v>
+        <v>17.26750000000002</v>
       </c>
     </row>
     <row r="44">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.737</v>
+        <v>-14.02469999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.331499999999998</v>
+        <v>-8.649900000000001</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.5393</v>
+        <v>17.4418</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.06899999999999</v>
+        <v>-14.18169999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.012299999999996</v>
+        <v>-7.997899999999996</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.46099999999999</v>
+        <v>-11.9792</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.14469999999999</v>
+        <v>-22.1478</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.21440000000002</v>
+        <v>-22.41760000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.05619999999999</v>
+        <v>-22.0738</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-12.8494</v>
+        <v>-12.9632</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9221</v>
+        <v>-11.055</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.69710000000001</v>
+        <v>17.61820000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.4001</v>
+        <v>17.43660000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.7023</v>
+        <v>-12.0569</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.71829999999999</v>
+        <v>-13.43299999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.5187</v>
+        <v>16.31409999999999</v>
       </c>
     </row>
     <row r="88">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.5157</v>
+        <v>-11.6854</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.42800000000001</v>
+        <v>18.30950000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.395399999999993</v>
+        <v>-8.329999999999991</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.2746</v>
+        <v>-11.496</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.450699999999992</v>
+        <v>-8.449299999999994</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1656</v>
+        <v>-22.0565</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.75750000000001</v>
+        <v>16.69620000000001</v>
       </c>
     </row>
     <row r="102">
